--- a/01_게임개발자료/블루프린트.xlsx
+++ b/01_게임개발자료/블루프린트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365jbnu-my.sharepoint.com/personal/namk0207_student_jbnu_ac_kr/Documents/4학년 2학기/모바일프로그래밍/Project/01_게임개발자료/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365jbnu-my.sharepoint.com/personal/namk0207_student_jbnu_ac_kr/Documents/4학년 2학기/모바일프로그래밍/Project/MotionTest_Playable/01_게임개발자료/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{C1FC42D1-0FE0-4F10-B440-6A73D8B999EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DF1C60B-E79E-46DF-9FDB-92880D260285}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="8_{C1FC42D1-0FE0-4F10-B440-6A73D8B999EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33ACD804-B1B5-41D9-A796-5D815D76CEE5}"/>
   <bookViews>
-    <workbookView xWindow="16620" yWindow="7510" windowWidth="20280" windowHeight="12090" activeTab="1" xr2:uid="{8BD530A7-FD67-483C-835E-AFC77149D5BB}"/>
+    <workbookView xWindow="7840" yWindow="4140" windowWidth="27210" windowHeight="16330" activeTab="1" xr2:uid="{8BD530A7-FD67-483C-835E-AFC77149D5BB}"/>
   </bookViews>
   <sheets>
     <sheet name="제작보드" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="100">
   <si>
     <t>늑대_스테이지</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -109,10 +109,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>다른 객체를 밟으면 y축이 상승하고 복원 안됨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>???</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -252,7 +248,190 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>문제번호</t>
+    <t>몬스터공격시navmesh이동정지</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 몬스터는 navmash를 이용해 이동. 공격시 이동을 멈추지 않음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrackkingCharacterScript</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터가추적x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">캐릭터 초기 위치만 추적, 캐릭터가 이동한 내용 인식 못함 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터프리팹에 씬에 생성된 캐릭터 오브젝트가 등록된게 아님</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>에셋 폴더 내 프리팹이 등록되어있음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터생성시캐릭터추적하게함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindWithTag이용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 객체를 닿으면 y축이 상승하고 복원 안됨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>navmash_stoppingDistance</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>정지시슬라이드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 정지시 슬라이드함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nav mesh agent의 velocity 특성 때문</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>navmesh.velocity = Vector3.zero;</t>
+  </si>
+  <si>
+    <t>최단거리몬스터</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. FindGameObjectsWithTag()로 전체 몬스터 찾은 뒤 캐릭터 사이의 거리 구함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 캐릭터 주변에 트리거 범위 만들고, 해당 범위 안에 들어오면 리스트에 추가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가된 리스트에서부터 곰돌이 스크립트가 최단거리 구함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerController에서 isGround인식해서 하강시킴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>charactorController에 isGround 변수 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터에트리거추가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터인식위해생성시고유이름부여</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터많으면제거불가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nearEnemyList[0]의 몬스터를 제거하려고 무한시도 다른 몬스터가 너무 많음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrackingEnemyScript</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>teddy와 접촉하는 Tah_Enemy 오브젝트 다 삭제하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 움직임이 관성 붙어서 미끄러짐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavMeshAgent_Acceelerationo증가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; teddy가 적을 너무 잘 잡음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed감소</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격모션반복됨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격비정상작동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 번 피격 됨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wolf의 충돌 범위가 이상함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy의 Collder가 두 개 있었음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격시 Enemy의 Collider는 기존 위치에 있음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>입오브젝트에collider추가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 공격시회전함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스폰숫자오류</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스폰2회차부터 적 오브젝트가 1개 더 생김</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyRespwanScript</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>씬전환오류</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 다 제거 후 어떤 때는 씬 전환 어떤 떄는 비전환</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵에 생성된 eneny숫자와 destroy숫자 동기화 문제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>동기화조절</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -260,7 +439,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +495,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -366,7 +552,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -383,6 +569,20 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -703,13 +903,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845C6EDA-9BA0-4CEF-9E6C-7F1306286ADE}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="14.08203125" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
@@ -720,7 +920,7 @@
     <col min="7" max="7" width="10.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -734,66 +934,66 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15">
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15">
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15">
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15">
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="B9">
         <v>2</v>
       </c>
@@ -804,7 +1004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15">
       <c r="B10">
         <v>3</v>
       </c>
@@ -815,7 +1015,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>11</v>
@@ -824,46 +1024,71 @@
         <v>12</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="E12" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H12" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H13" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -872,6 +1097,14 @@
     <hyperlink ref="F10" location="문제점들!A2" display="캐릭터회전" xr:uid="{CB61A31C-1696-4B4F-BA98-9C4527AD8C25}"/>
     <hyperlink ref="G10" location="문제점들!A3" display="캐릭터위치" xr:uid="{062A92D3-7D15-4F74-93F3-B3DD0201D2A6}"/>
     <hyperlink ref="H10" location="문제점들!A5" display="몬스터리스폰겹침" xr:uid="{687B1EC0-AFB3-481B-87FA-65506AD53BBC}"/>
+    <hyperlink ref="J10" location="문제점들!A13" display="몬스터공격시navmesh이동정지" xr:uid="{4ED3FBDB-C6AA-48AC-A8F3-28A8E09EE182}"/>
+    <hyperlink ref="M10" location="문제점들!A14" display="정지시슬라이드" xr:uid="{C0846778-AC30-439B-A700-EABE2E776C10}"/>
+    <hyperlink ref="O10" location="문제점들!A15" display="몬스터가추적x" xr:uid="{B2D5EABC-40D3-4099-894D-D9170855E4AF}"/>
+    <hyperlink ref="H11" location="문제점들!A20" display="몬스터많으면제거불가" xr:uid="{4D26FBC5-3CD7-465F-A7D5-0C31658BCA0C}"/>
+    <hyperlink ref="F13" location="문제점들!A24" display="피격비정상작동" xr:uid="{6F133D2F-58D0-46F4-82B2-2EDF8930C878}"/>
+    <hyperlink ref="F12" location="제작보드!A23" display="피격모션반복됨" xr:uid="{27137C8D-2EF9-4FE3-9A42-B9649BC5CD45}"/>
+    <hyperlink ref="H12" location="제작보드!A27" display="리스폰숫자오류" xr:uid="{30792ED8-6BB6-41F0-91AA-5949EA88EBBE}"/>
+    <hyperlink ref="H13" location="제작보드!A28" display="씬전환오류" xr:uid="{6AA88BF0-B1F3-47BB-BDD4-624EF89A6FE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -880,27 +1113,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D3B4C0-86E0-4695-B6C5-318241D140DC}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="A14:K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="8" max="8" width="24.83203125" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" customWidth="1"/>
-    <col min="10" max="10" width="47.9140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.58203125" customWidth="1"/>
+    <col min="3" max="3" width="5.75" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="53" style="6" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>14</v>
@@ -913,13 +1148,13 @@
         <v>15</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -939,113 +1174,425 @@
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="J3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13">
+        <v>4</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="D6" t="s">
+      <c r="J6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K7" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="J8" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="J9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="J10" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="J11" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="J8" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="J9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="J10" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="J11" s="6" t="s">
+      <c r="K11" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="J12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="6" t="s">
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="J12" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="C13">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11">
         <v>5</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11">
+        <v>6</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11">
+        <v>8</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13">
+        <v>9</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11">
+        <v>11</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11">
+        <v>12</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" t="s">
+        <v>79</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/01_게임개발자료/블루프린트.xlsx
+++ b/01_게임개발자료/블루프린트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365jbnu-my.sharepoint.com/personal/namk0207_student_jbnu_ac_kr/Documents/4학년 2학기/모바일프로그래밍/Project/MotionTest_Playable/01_게임개발자료/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yosephkim/mac_gameDev_C#/MotionTest_Playable/01_게임개발자료/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="8_{C1FC42D1-0FE0-4F10-B440-6A73D8B999EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33ACD804-B1B5-41D9-A796-5D815D76CEE5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D70DF0-1820-5F4A-8BAF-9E8C708ECF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7840" yWindow="4140" windowWidth="27210" windowHeight="16330" activeTab="1" xr2:uid="{8BD530A7-FD67-483C-835E-AFC77149D5BB}"/>
+    <workbookView xWindow="7840" yWindow="4140" windowWidth="27220" windowHeight="16340" xr2:uid="{8BD530A7-FD67-483C-835E-AFC77149D5BB}"/>
   </bookViews>
   <sheets>
     <sheet name="제작보드" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="104">
   <si>
     <t>늑대_스테이지</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -432,6 +432,22 @@
   </si>
   <si>
     <t>동기화조절</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 전환</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스공격패턴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰돌이AI_조건부공격</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라연출</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -903,21 +919,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845C6EDA-9BA0-4CEF-9E6C-7F1306286ADE}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="14.08203125" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="3" max="3" width="28.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.08203125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.08203125" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1079,15 +1095,31 @@
       <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="E14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" t="s">
+      <c r="E15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="E16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1115,14 +1147,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D3B4C0-86E0-4695-B6C5-318241D140DC}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="A14:K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="18.58203125" customWidth="1"/>
-    <col min="3" max="3" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
     <col min="9" max="9" width="21.6640625" customWidth="1"/>
     <col min="10" max="10" width="53" style="6" customWidth="1"/>

--- a/01_게임개발자료/블루프린트.xlsx
+++ b/01_게임개발자료/블루프린트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yosephkim/mac_gameDev_C#/MotionTest_Playable/01_게임개발자료/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365jbnu-my.sharepoint.com/personal/namk0207_student_jbnu_ac_kr/Documents/4학년 2학기/모바일프로그래밍/Project/MotionTest_Playable/01_게임개발자료/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D70DF0-1820-5F4A-8BAF-9E8C708ECF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{72D70DF0-1820-5F4A-8BAF-9E8C708ECF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{834AC81C-5DB8-49FB-BF67-FB4A09F4AB05}"/>
   <bookViews>
-    <workbookView xWindow="7840" yWindow="4140" windowWidth="27220" windowHeight="16340" xr2:uid="{8BD530A7-FD67-483C-835E-AFC77149D5BB}"/>
+    <workbookView xWindow="9530" yWindow="680" windowWidth="28800" windowHeight="15910" xr2:uid="{8BD530A7-FD67-483C-835E-AFC77149D5BB}"/>
   </bookViews>
   <sheets>
     <sheet name="제작보드" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,382 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>김요셉</author>
+  </authors>
+  <commentList>
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{F3DECEA2-5494-4198-8A0A-CCDF6F3FB195}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김요셉</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보스등장시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필요</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>컷신으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>따로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>뺄</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수도</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{1775DF53-51C3-4708-ABD4-91FE43EBC6F4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김요셉</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Idle : Walking</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">변경
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{600FCFFA-B755-4392-BEAA-84EA1CD2E9E4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김요셉</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유저가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>거리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>벌리면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>돌진</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>혹은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>물기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공격</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="129">
   <si>
     <t>늑대_스테이지</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -448,6 +822,106 @@
   </si>
   <si>
     <t>카메라연출</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴종류</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnderRequires</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>물기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대소환</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>장판구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭과높이차이</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>울기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>장판범위스턴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격타이밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>충돌후튕김</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idea</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진후 딜타임</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>소환회피후 딜타임</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스HP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복되는공격</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>거리 기준으로 공격트리거를 발동시키면 공격이 무한 반복된다</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trackin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프공격</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전모션구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>하울링모션구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프공격모션구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프장판</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +929,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,6 +991,34 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -918,25 +1420,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845C6EDA-9BA0-4CEF-9E6C-7F1306286ADE}">
-  <dimension ref="A1:O22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845C6EDA-9BA0-4CEF-9E6C-7F1306286ADE}">
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="3" max="3" width="28.83203125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="5" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="14.4140625" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -953,15 +1455,21 @@
         <v>32</v>
       </c>
       <c r="F1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:18">
       <c r="B3">
         <v>1</v>
       </c>
@@ -972,7 +1480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:18">
       <c r="C4" t="s">
         <v>22</v>
       </c>
@@ -980,7 +1488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:18">
       <c r="C5" t="s">
         <v>23</v>
       </c>
@@ -988,7 +1496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:18">
       <c r="C6" t="s">
         <v>24</v>
       </c>
@@ -996,12 +1504,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:18">
       <c r="B8">
         <v>1</v>
       </c>
@@ -1009,7 +1517,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:18">
       <c r="B9">
         <v>2</v>
       </c>
@@ -1020,7 +1528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:18">
       <c r="B10">
         <v>3</v>
       </c>
@@ -1033,62 +1541,62 @@
       <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="M10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="P10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="R10" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:18">
       <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="5" t="s">
+      <c r="J11" s="3"/>
+      <c r="K11" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:18">
       <c r="E12" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="5" t="s">
+      <c r="J12" s="3"/>
+      <c r="K12" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:18">
       <c r="E13" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="5" t="s">
+      <c r="J13" s="3"/>
+      <c r="K13" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:18">
       <c r="C14" t="s">
         <v>9</v>
       </c>
@@ -1098,60 +1606,160 @@
       <c r="E14" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="I14" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:18">
       <c r="E15" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="I15" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="E16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="5:10">
+      <c r="F17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10">
+      <c r="F18" s="15"/>
+      <c r="G18" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10">
+      <c r="F19" s="15"/>
+      <c r="G19" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10">
+      <c r="F20" s="15"/>
+      <c r="G20" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10">
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10">
+      <c r="I22" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10">
+      <c r="G23" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10">
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="5:10">
+      <c r="I25" s="5"/>
+    </row>
+    <row r="27" spans="5:10">
+      <c r="E27" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="28" spans="5:10">
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F10" location="문제점들!A2" display="캐릭터회전" xr:uid="{CB61A31C-1696-4B4F-BA98-9C4527AD8C25}"/>
-    <hyperlink ref="G10" location="문제점들!A3" display="캐릭터위치" xr:uid="{062A92D3-7D15-4F74-93F3-B3DD0201D2A6}"/>
-    <hyperlink ref="H10" location="문제점들!A5" display="몬스터리스폰겹침" xr:uid="{687B1EC0-AFB3-481B-87FA-65506AD53BBC}"/>
-    <hyperlink ref="J10" location="문제점들!A13" display="몬스터공격시navmesh이동정지" xr:uid="{4ED3FBDB-C6AA-48AC-A8F3-28A8E09EE182}"/>
-    <hyperlink ref="M10" location="문제점들!A14" display="정지시슬라이드" xr:uid="{C0846778-AC30-439B-A700-EABE2E776C10}"/>
-    <hyperlink ref="O10" location="문제점들!A15" display="몬스터가추적x" xr:uid="{B2D5EABC-40D3-4099-894D-D9170855E4AF}"/>
-    <hyperlink ref="H11" location="문제점들!A20" display="몬스터많으면제거불가" xr:uid="{4D26FBC5-3CD7-465F-A7D5-0C31658BCA0C}"/>
-    <hyperlink ref="F13" location="문제점들!A24" display="피격비정상작동" xr:uid="{6F133D2F-58D0-46F4-82B2-2EDF8930C878}"/>
-    <hyperlink ref="F12" location="제작보드!A23" display="피격모션반복됨" xr:uid="{27137C8D-2EF9-4FE3-9A42-B9649BC5CD45}"/>
-    <hyperlink ref="H12" location="제작보드!A27" display="리스폰숫자오류" xr:uid="{30792ED8-6BB6-41F0-91AA-5949EA88EBBE}"/>
-    <hyperlink ref="H13" location="제작보드!A28" display="씬전환오류" xr:uid="{6AA88BF0-B1F3-47BB-BDD4-624EF89A6FE6}"/>
+    <hyperlink ref="I10" location="문제점들!A2" display="캐릭터회전" xr:uid="{CB61A31C-1696-4B4F-BA98-9C4527AD8C25}"/>
+    <hyperlink ref="J10" location="문제점들!A3" display="캐릭터위치" xr:uid="{062A92D3-7D15-4F74-93F3-B3DD0201D2A6}"/>
+    <hyperlink ref="K10" location="문제점들!A5" display="몬스터리스폰겹침" xr:uid="{687B1EC0-AFB3-481B-87FA-65506AD53BBC}"/>
+    <hyperlink ref="M10" location="문제점들!A13" display="몬스터공격시navmesh이동정지" xr:uid="{4ED3FBDB-C6AA-48AC-A8F3-28A8E09EE182}"/>
+    <hyperlink ref="P10" location="문제점들!A14" display="정지시슬라이드" xr:uid="{C0846778-AC30-439B-A700-EABE2E776C10}"/>
+    <hyperlink ref="R10" location="문제점들!A15" display="몬스터가추적x" xr:uid="{B2D5EABC-40D3-4099-894D-D9170855E4AF}"/>
+    <hyperlink ref="K11" location="문제점들!A20" display="몬스터많으면제거불가" xr:uid="{4D26FBC5-3CD7-465F-A7D5-0C31658BCA0C}"/>
+    <hyperlink ref="I13" location="문제점들!A24" display="피격비정상작동" xr:uid="{6F133D2F-58D0-46F4-82B2-2EDF8930C878}"/>
+    <hyperlink ref="I12" location="제작보드!A23" display="피격모션반복됨" xr:uid="{27137C8D-2EF9-4FE3-9A42-B9649BC5CD45}"/>
+    <hyperlink ref="K12" location="제작보드!A27" display="리스폰숫자오류" xr:uid="{30792ED8-6BB6-41F0-91AA-5949EA88EBBE}"/>
+    <hyperlink ref="K13" location="제작보드!A28" display="씬전환오류" xr:uid="{6AA88BF0-B1F3-47BB-BDD4-624EF89A6FE6}"/>
+    <hyperlink ref="I22" location="문제점들!A30" display="공격타이밍" xr:uid="{45608390-7568-430E-832A-0D33E26069CC}"/>
+    <hyperlink ref="I15" location="문제점들!A31" display="반복되는공격" xr:uid="{F28A37DF-83BE-431E-904C-026B10F1759A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D3B4C0-86E0-4695-B6C5-318241D140DC}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="A14:K16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
@@ -1627,6 +2235,30 @@
         <v>99</v>
       </c>
     </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
